--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna5-Epha3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna5-Epha3.xlsx
@@ -91,7 +91,7 @@
     <t>Epha3</t>
   </si>
   <si>
-    <t>Resolving-Mac</t>
+    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.2457683333333333</v>
+      </c>
+      <c r="H2">
+        <v>0.737305</v>
+      </c>
+      <c r="I2">
+        <v>0.1447271191911903</v>
+      </c>
+      <c r="J2">
+        <v>0.1575855905380038</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>0.172256</v>
-      </c>
-      <c r="H2">
-        <v>0.516768</v>
-      </c>
-      <c r="I2">
-        <v>0.1007998459820299</v>
-      </c>
-      <c r="J2">
-        <v>0.1116918428350044</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.030493</v>
+        <v>0.107177</v>
       </c>
       <c r="N2">
-        <v>0.09147899999999999</v>
+        <v>0.321531</v>
       </c>
       <c r="O2">
-        <v>0.001018637778668347</v>
+        <v>0.003526763356587491</v>
       </c>
       <c r="P2">
-        <v>0.001021037349570579</v>
+        <v>0.003549676734010809</v>
       </c>
       <c r="Q2">
-        <v>0.005252602207999999</v>
+        <v>0.02634071266166667</v>
       </c>
       <c r="R2">
-        <v>0.047273419872</v>
+        <v>0.237066413955</v>
       </c>
       <c r="S2">
-        <v>0.0001026785312012464</v>
+        <v>0.0005104183006679603</v>
       </c>
       <c r="T2">
-        <v>0.0001140415431769066</v>
+        <v>0.0005593779043481057</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.172256</v>
+        <v>0.2457683333333333</v>
       </c>
       <c r="H3">
-        <v>0.516768</v>
+        <v>0.737305</v>
       </c>
       <c r="I3">
-        <v>0.1007998459820299</v>
+        <v>0.1447271191911903</v>
       </c>
       <c r="J3">
-        <v>0.1116918428350044</v>
+        <v>0.1575855905380038</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>88.95964599999999</v>
       </c>
       <c r="O3">
-        <v>0.990584245483253</v>
+        <v>0.9757678722356318</v>
       </c>
       <c r="P3">
-        <v>0.9929177316168408</v>
+        <v>0.9821074349659524</v>
       </c>
       <c r="Q3">
-        <v>5.107944260458666</v>
+        <v>7.287821310447778</v>
       </c>
       <c r="R3">
-        <v>45.97149834412799</v>
+        <v>65.59039179403</v>
       </c>
       <c r="S3">
-        <v>0.09985073937693717</v>
+        <v>0.1412200731479805</v>
       </c>
       <c r="T3">
-        <v>0.1109008112278373</v>
+        <v>0.1547659801108737</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,55 +652,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.2457683333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.737305</v>
+      </c>
+      <c r="I4">
+        <v>0.1447271191911903</v>
+      </c>
+      <c r="J4">
+        <v>0.1575855905380038</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>0.172256</v>
-      </c>
-      <c r="H4">
-        <v>0.516768</v>
-      </c>
-      <c r="I4">
-        <v>0.1007998459820299</v>
-      </c>
-      <c r="J4">
-        <v>0.1116918428350044</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>0.211054</v>
+        <v>0.04072766666666667</v>
       </c>
       <c r="N4">
-        <v>0.422108</v>
+        <v>0.122183</v>
       </c>
       <c r="O4">
-        <v>0.007050391163187266</v>
+        <v>0.001340183457265176</v>
       </c>
       <c r="P4">
-        <v>0.00471133302236074</v>
+        <v>0.001348890627627329</v>
       </c>
       <c r="Q4">
-        <v>0.036355317824</v>
+        <v>0.01000957075722222</v>
       </c>
       <c r="R4">
-        <v>0.218131906944</v>
+        <v>0.090086136815</v>
       </c>
       <c r="S4">
-        <v>0.0007106783433623409</v>
+        <v>0.0001939608909576787</v>
       </c>
       <c r="T4">
-        <v>0.0005262174674768821</v>
+        <v>0.0002125657261258311</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,55 +714,55 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.172256</v>
+        <v>0.2457683333333333</v>
       </c>
       <c r="H5">
-        <v>0.516768</v>
+        <v>0.737305</v>
       </c>
       <c r="I5">
-        <v>0.1007998459820299</v>
+        <v>0.1447271191911903</v>
       </c>
       <c r="J5">
-        <v>0.1116918428350044</v>
+        <v>0.1575855905380038</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.04031433333333333</v>
+        <v>0.5885005</v>
       </c>
       <c r="N5">
-        <v>0.120943</v>
+        <v>1.177001</v>
       </c>
       <c r="O5">
-        <v>0.001346725574891351</v>
+        <v>0.01936518095051565</v>
       </c>
       <c r="P5">
-        <v>0.001349898011227873</v>
+        <v>0.01299399767240936</v>
       </c>
       <c r="Q5">
-        <v>0.006944385802666667</v>
+        <v>0.1446347870508333</v>
       </c>
       <c r="R5">
-        <v>0.06249947222400001</v>
+        <v>0.8678087223049999</v>
       </c>
       <c r="S5">
-        <v>0.0001357497305291088</v>
+        <v>0.002802666851584248</v>
       </c>
       <c r="T5">
-        <v>0.0001507725965133486</v>
+        <v>0.002047666796656076</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>3.110073</v>
       </c>
       <c r="I6">
-        <v>0.6066453019398833</v>
+        <v>0.6104826439049008</v>
       </c>
       <c r="J6">
-        <v>0.6721967782861762</v>
+        <v>0.6647217777192627</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.030493</v>
+        <v>0.107177</v>
       </c>
       <c r="N6">
-        <v>0.09147899999999999</v>
+        <v>0.321531</v>
       </c>
       <c r="O6">
-        <v>0.001018637778668347</v>
+        <v>0.003526763356587491</v>
       </c>
       <c r="P6">
-        <v>0.001021037349570579</v>
+        <v>0.003549676734010809</v>
       </c>
       <c r="Q6">
-        <v>0.031611818663</v>
+        <v>0.111109431307</v>
       </c>
       <c r="R6">
-        <v>0.284506367967</v>
+        <v>0.999984881763</v>
       </c>
       <c r="S6">
-        <v>0.0006179518228076312</v>
+        <v>0.002153027818356454</v>
       </c>
       <c r="T6">
-        <v>0.0006863380168911997</v>
+        <v>0.002359547428960371</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>3.110073</v>
       </c>
       <c r="I7">
-        <v>0.6066453019398833</v>
+        <v>0.6104826439049008</v>
       </c>
       <c r="J7">
-        <v>0.6721967782861762</v>
+        <v>0.6647217777192627</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>88.95964599999999</v>
       </c>
       <c r="O7">
-        <v>0.990584245483253</v>
+        <v>0.9757678722356318</v>
       </c>
       <c r="P7">
-        <v>0.9929177316168408</v>
+        <v>0.9821074349659524</v>
       </c>
       <c r="Q7">
         <v>30.74122145712867</v>
@@ -883,10 +883,10 @@
         <v>276.670993114158</v>
       </c>
       <c r="S7">
-        <v>0.6009332786980794</v>
+        <v>0.5956893504798679</v>
       </c>
       <c r="T7">
-        <v>0.6674361002960586</v>
+        <v>0.652828200081873</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,40 +915,40 @@
         <v>3.110073</v>
       </c>
       <c r="I8">
-        <v>0.6066453019398833</v>
+        <v>0.6104826439049008</v>
       </c>
       <c r="J8">
-        <v>0.6721967782861762</v>
+        <v>0.6647217777192627</v>
       </c>
       <c r="K8">
         <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.211054</v>
+        <v>0.04072766666666667</v>
       </c>
       <c r="N8">
-        <v>0.422108</v>
+        <v>0.122183</v>
       </c>
       <c r="O8">
-        <v>0.007050391163187266</v>
+        <v>0.001340183457265176</v>
       </c>
       <c r="P8">
-        <v>0.00471133302236074</v>
+        <v>0.001348890627627329</v>
       </c>
       <c r="Q8">
-        <v>0.218797782314</v>
+        <v>0.04222200548433334</v>
       </c>
       <c r="R8">
-        <v>1.312786693884</v>
+        <v>0.379998049359</v>
       </c>
       <c r="S8">
-        <v>0.004277086675986024</v>
+        <v>0.0008181587403088555</v>
       </c>
       <c r="T8">
-        <v>0.003166942879064162</v>
+        <v>0.0008966369759452899</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,7 +962,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,40 +977,40 @@
         <v>3.110073</v>
       </c>
       <c r="I9">
-        <v>0.6066453019398833</v>
+        <v>0.6104826439049008</v>
       </c>
       <c r="J9">
-        <v>0.6721967782861762</v>
+        <v>0.6647217777192627</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.04031433333333333</v>
+        <v>0.5885005</v>
       </c>
       <c r="N9">
-        <v>0.120943</v>
+        <v>1.177001</v>
       </c>
       <c r="O9">
-        <v>0.001346725574891351</v>
+        <v>0.01936518095051565</v>
       </c>
       <c r="P9">
-        <v>0.001349898011227873</v>
+        <v>0.01299399767240936</v>
       </c>
       <c r="Q9">
-        <v>0.04179350653766667</v>
+        <v>0.6100931718455</v>
       </c>
       <c r="R9">
-        <v>0.376141558839</v>
+        <v>3.660559031073</v>
       </c>
       <c r="S9">
-        <v>0.0008169847430101265</v>
+        <v>0.01182210686636762</v>
       </c>
       <c r="T9">
-        <v>0.0009073970941622928</v>
+        <v>0.008637393232483914</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4999445</v>
+        <v>0.4156905</v>
       </c>
       <c r="H10">
-        <v>0.999889</v>
+        <v>0.831381</v>
       </c>
       <c r="I10">
-        <v>0.2925548520780869</v>
+        <v>0.2447902369039089</v>
       </c>
       <c r="J10">
-        <v>0.2161113788788194</v>
+        <v>0.1776926317427335</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.030493</v>
+        <v>0.107177</v>
       </c>
       <c r="N10">
-        <v>0.09147899999999999</v>
+        <v>0.321531</v>
       </c>
       <c r="O10">
-        <v>0.001018637778668347</v>
+        <v>0.003526763356587491</v>
       </c>
       <c r="P10">
-        <v>0.001021037349570579</v>
+        <v>0.003549676734010809</v>
       </c>
       <c r="Q10">
-        <v>0.0152448076385</v>
+        <v>0.0445524607185</v>
       </c>
       <c r="R10">
-        <v>0.091468845831</v>
+        <v>0.267314764311</v>
       </c>
       <c r="S10">
-        <v>0.0002980074246594692</v>
+        <v>0.0008633172375630767</v>
       </c>
       <c r="T10">
-        <v>0.000220657789502473</v>
+        <v>0.0006307514007023315</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4999445</v>
+        <v>0.4156905</v>
       </c>
       <c r="H11">
-        <v>0.999889</v>
+        <v>0.831381</v>
       </c>
       <c r="I11">
-        <v>0.2925548520780869</v>
+        <v>0.2447902369039089</v>
       </c>
       <c r="J11">
-        <v>0.2161113788788194</v>
+        <v>0.1776926317427335</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>88.95964599999999</v>
       </c>
       <c r="O11">
-        <v>0.990584245483253</v>
+        <v>0.9757678722356318</v>
       </c>
       <c r="P11">
-        <v>0.9929177316168408</v>
+        <v>0.9821074349659524</v>
       </c>
       <c r="Q11">
-        <v>14.82496191321567</v>
+        <v>12.326559908521</v>
       </c>
       <c r="R11">
-        <v>88.949771479294</v>
+        <v>73.95935945112599</v>
       </c>
       <c r="S11">
-        <v>0.2898002274082364</v>
+        <v>0.2388584486077834</v>
       </c>
       <c r="T11">
-        <v>0.214580820092945</v>
+        <v>0.1745132547732056</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,7 +1148,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4999445</v>
+        <v>0.4156905</v>
       </c>
       <c r="H12">
-        <v>0.999889</v>
+        <v>0.831381</v>
       </c>
       <c r="I12">
-        <v>0.2925548520780869</v>
+        <v>0.2447902369039089</v>
       </c>
       <c r="J12">
-        <v>0.2161113788788194</v>
+        <v>0.1776926317427335</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.211054</v>
+        <v>0.04072766666666667</v>
       </c>
       <c r="N12">
-        <v>0.422108</v>
+        <v>0.122183</v>
       </c>
       <c r="O12">
-        <v>0.007050391163187266</v>
+        <v>0.001340183457265176</v>
       </c>
       <c r="P12">
-        <v>0.00471133302236074</v>
+        <v>0.001348890627627329</v>
       </c>
       <c r="Q12">
-        <v>0.105515286503</v>
+        <v>0.0169301041205</v>
       </c>
       <c r="R12">
-        <v>0.422061146012</v>
+        <v>0.101580624723</v>
       </c>
       <c r="S12">
-        <v>0.002062626143838902</v>
+        <v>0.0003280638259986421</v>
       </c>
       <c r="T12">
-        <v>0.001018172675819695</v>
+        <v>0.0002396879255562076</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,7 +1210,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4999445</v>
+        <v>0.4156905</v>
       </c>
       <c r="H13">
-        <v>0.999889</v>
+        <v>0.831381</v>
       </c>
       <c r="I13">
-        <v>0.2925548520780869</v>
+        <v>0.2447902369039089</v>
       </c>
       <c r="J13">
-        <v>0.2161113788788194</v>
+        <v>0.1776926317427335</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.04031433333333333</v>
+        <v>0.5885005</v>
       </c>
       <c r="N13">
-        <v>0.120943</v>
+        <v>1.177001</v>
       </c>
       <c r="O13">
-        <v>0.001346725574891351</v>
+        <v>0.01936518095051565</v>
       </c>
       <c r="P13">
-        <v>0.001349898011227873</v>
+        <v>0.01299399767240936</v>
       </c>
       <c r="Q13">
-        <v>0.02015492922116667</v>
+        <v>0.24463406709525</v>
       </c>
       <c r="R13">
-        <v>0.120929575327</v>
+        <v>0.9785362683810001</v>
       </c>
       <c r="S13">
-        <v>0.0003939911013521157</v>
+        <v>0.00474040723256379</v>
       </c>
       <c r="T13">
-        <v>0.0002917283205522316</v>
+        <v>0.002308937643269373</v>
       </c>
     </row>
   </sheetData>
